--- a/results/summary.xlsx
+++ b/results/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivywang/Desktop/CPL/syntactic_evaluation/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA35E8A-8A4C-2B41-A690-D52D9515AD78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899ACAF3-294A-0E45-B616-5FE3CCB4D6C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="560" windowWidth="18220" windowHeight="16300" xr2:uid="{B2DF5B6E-349B-484A-8786-54C66D6945A3}"/>
+    <workbookView xWindow="3780" yWindow="460" windowWidth="24900" windowHeight="16300" xr2:uid="{B2DF5B6E-349B-484A-8786-54C66D6945A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
   <si>
     <t>Type</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t xml:space="preserve">RNNG </t>
+  </si>
+  <si>
+    <t>RNNG</t>
+  </si>
+  <si>
+    <t>News LSTM</t>
+  </si>
+  <si>
+    <t>News RNNG</t>
   </si>
 </sst>
 </file>
@@ -457,16 +466,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0290447C-5E5C-644A-915B-1A6F64E2D0F0}">
-  <dimension ref="B2:F28"/>
+  <dimension ref="B2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
@@ -688,7 +698,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -702,7 +712,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -716,7 +726,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -730,7 +740,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -744,7 +754,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -758,7 +768,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -772,7 +782,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -786,7 +796,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -800,7 +810,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -814,7 +824,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -828,7 +838,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -842,7 +852,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>18</v>
       </c>
@@ -854,6 +864,286 @@
       </c>
       <c r="E28">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G33">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E34">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>0.8</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="G36">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F37">
+        <v>0.4</v>
+      </c>
+      <c r="G37">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E38">
+        <v>0.71</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="G38">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E39">
+        <v>0.71</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="G39">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E40">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.871</v>
+      </c>
+      <c r="G40">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E41">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G41">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>0.8</v>
+      </c>
+      <c r="E42">
+        <v>0.9</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>0.8</v>
+      </c>
+      <c r="E43">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G43">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F44">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="G44">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E45">
+        <v>0.7</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="G45">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
